--- a/config_Release/happy_zajindan_act_task_server.xlsx
+++ b/config_Release/happy_zajindan_act_task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -126,22 +126,13 @@
     <t>1300000,1600000</t>
   </si>
   <si>
-    <t>5000000,6500000</t>
+    <t>5500000,6500000</t>
   </si>
   <si>
     <t>id|铜1银2金3</t>
   </si>
   <si>
     <t>task_id|任务</t>
-  </si>
-  <si>
-    <t>1000609</t>
-  </si>
-  <si>
-    <t>1000610</t>
-  </si>
-  <si>
-    <t>1000611</t>
   </si>
 </sst>
 </file>
@@ -151,8 +142,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -163,8 +154,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +193,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,14 +224,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,11 +284,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,76 +297,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -322,13 +313,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,127 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,37 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,8 +510,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,26 +559,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,17 +599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,139 +624,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1094,8 +1088,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1119,7 +1113,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1176,8 +1170,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1187,7 +1181,7 @@
     <col min="4" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1209,7 +1203,7 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1232,7 +1226,7 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1255,7 +1249,7 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1278,7 +1272,7 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1301,7 +1295,7 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1324,7 +1318,7 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1347,7 +1341,7 @@
       <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1370,7 +1364,7 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1393,7 +1387,7 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1416,7 +1410,7 @@
       <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1439,7 +1433,7 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1462,7 +1456,7 @@
       <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1485,7 +1479,7 @@
       <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1508,7 +1502,7 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1531,7 +1525,7 @@
       <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1554,7 +1548,7 @@
       <c r="F16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1577,7 +1571,7 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1600,7 +1594,7 @@
       <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1623,7 +1617,7 @@
       <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1646,7 +1640,7 @@
       <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1669,7 +1663,7 @@
       <c r="F21" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1692,7 +1686,7 @@
       <c r="F22" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1715,7 +1709,7 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1738,7 +1732,7 @@
       <c r="F24" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1761,7 +1755,7 @@
       <c r="F25" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1784,7 +1778,7 @@
       <c r="F26" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1807,7 +1801,7 @@
       <c r="F27" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1830,7 +1824,7 @@
       <c r="F28" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1846,7 +1840,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1867,24 +1861,24 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
+      <c r="B2" s="1">
+        <v>1000678</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
+      <c r="B3" s="1">
+        <v>1000679</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
+      <c r="B4" s="1">
+        <v>1000680</v>
       </c>
     </row>
   </sheetData>
